--- a/Aleutians.xlsx
+++ b/Aleutians.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\2022\GitHub\EPS100BLab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B9293-1B97-49D1-8906-59149519CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AC40A-99DD-46A5-8EED-091665A08678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7B37E65-A629-44D1-A1F1-BC450B57CF56}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Volcano</t>
   </si>
   <si>
-    <t>SIO2_Liq</t>
-  </si>
-  <si>
     <t>TiO2_Liq</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>P2O5_Liq</t>
+  </si>
+  <si>
+    <t>SiO2_Liq</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,34 +454,34 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
